--- a/modules/fsinzak/xlsx/export_order5.xlsx
+++ b/modules/fsinzak/xlsx/export_order5.xlsx
@@ -26,13 +26,13 @@
     <t>Заказчик:</t>
   </si>
   <si>
-    <t>Кононович Супервизор  Админович</t>
+    <t>Кононович4212 Супервизор  Админович</t>
   </si>
   <si>
     <t>Получатель:</t>
   </si>
   <si>
-    <t>Простой Простофиля Простофилевич</t>
+    <t>Простой1234 Простофиля Простофилевич</t>
   </si>
   <si>
     <t>Адрес заказчика:</t>
@@ -44,7 +44,7 @@
     <t>Дата рождения</t>
   </si>
   <si>
-    <t>2003-01-01</t>
+    <t>2001-01-10</t>
   </si>
   <si>
     <t>Регион</t>
@@ -137,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border/>
     <border>
       <top style="thin">
@@ -190,25 +190,33 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -238,7 +246,16 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -540,10 +557,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A11" sqref="A11:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,161 +572,173 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="30"/>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
       <c r="B7"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="14">
         <v>75</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="14">
         <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="14">
         <v>100</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="14">
         <v>400</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="14">
         <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="14">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="14">
         <v>300</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="14">
         <v>300</v>
       </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/modules/fsinzak/xlsx/export_order5.xlsx
+++ b/modules/fsinzak/xlsx/export_order5.xlsx
@@ -44,7 +44,7 @@
     <t>Дата рождения</t>
   </si>
   <si>
-    <t>2001-01-10</t>
+    <t>2001-01-17</t>
   </si>
   <si>
     <t>Регион</t>
